--- a/Dashboard/Env/import.xlsx
+++ b/Dashboard/Env/import.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB7344B-10D0-4FF8-946B-01D1EFC29EC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEE92A-A428-4AB1-9C4F-B736F825989A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>Yazar</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{289FEB10-AC5C-4BB0-ABD3-E022E625129B}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{289FEB10-AC5C-4BB0-ABD3-E022E625129B}">
       <text>
         <r>
           <rPr>
@@ -56,13 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>soyad</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>tel</t>
   </si>
@@ -110,16 +104,13 @@
     <t>ARM WHATSAPP</t>
   </si>
   <si>
-    <t>Murat</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>Bal</t>
-  </si>
-  <si>
-    <t>Dal</t>
+    <t>ad soyad</t>
+  </si>
+  <si>
+    <t>Mustafa Bal</t>
+  </si>
+  <si>
+    <t>Murat Dal</t>
   </si>
 </sst>
 </file>
@@ -482,96 +473,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43001.185613425921</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43001.185613425921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>43001.213946759257</v>
       </c>
     </row>
